--- a/excel_copies/iso_excel_2024-2025_term1_SYJC.xlsx
+++ b/excel_copies/iso_excel_2024-2025_term1_SYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA49B778-83E9-49E3-BF8E-2937FDEA5D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACC263A-A006-4931-995B-8F09EF795C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/excel_copies/iso_excel_2024-2025_term1_SYJC.xlsx
+++ b/excel_copies/iso_excel_2024-2025_term1_SYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACC263A-A006-4931-995B-8F09EF795C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702104CF-7A07-4709-BAC7-42DEE4EC015A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
